--- a/2018_data/Devonta_Freeman2018.xlsx
+++ b/2018_data/Devonta_Freeman2018.xlsx
@@ -12,101 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
-  <si>
-    <t>https://www.pro-football-reference.com/players/F/FreeDe00/gamelog/2018/</t>
-  </si>
-  <si>
-    <t>2018-09-06</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>26.175</t>
-  </si>
-  <si>
-    <t>ATL</t>
-  </si>
-  <si>
-    <t>@</t>
-  </si>
-  <si>
-    <t>PHI</t>
-  </si>
-  <si>
-    <t>L 12-18</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>4.67</t>
-  </si>
-  <si>
-    <t>60.0%</t>
-  </si>
-  <si>
-    <t>2.80</t>
-  </si>
-  <si>
-    <t>2018-10-07</t>
-  </si>
-  <si>
-    <t>26.206</t>
-  </si>
-  <si>
-    <t>PIT</t>
-  </si>
-  <si>
-    <t>L 17-41</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>4.50</t>
-  </si>
-  <si>
-    <t>100.0%</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,128 +353,234 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Freeman</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Devonta</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>2018-09-06</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>26.175</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>L 12-18</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>60.0%</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="W1" t="n">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" t="s">
-        <v>28</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Freeman</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Devonta</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2018-10-07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>26.206</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>PIT</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>L 17-41</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="W2" t="n">
+        <v>4.1</v>
       </c>
     </row>
   </sheetData>
